--- a/academycity/data/training/datasets/excel/tests/112_1_Fin_yankee_20230608.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_1_Fin_yankee_20230608.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$G$185</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -266,7 +269,7 @@
     <t xml:space="preserve">MAKWELA MONDO</t>
   </si>
   <si>
-    <t xml:space="preserve">MBOYO KELOKELO Arisrtote</t>
+    <t xml:space="preserve">siala makondo francis</t>
   </si>
   <si>
     <t xml:space="preserve">MBULU BAMWANGALA</t>
@@ -630,7 +633,7 @@
     <t xml:space="preserve">TSHILONDA-NSANA-RAPHAEL</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHIMBALANGA KAZADI RICKY</t>
+    <t xml:space="preserve">ngoy lumweto alexander</t>
   </si>
 </sst>
 </file>
@@ -922,19 +925,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1010,6 +1013,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1018,17 +1025,17 @@
   <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="G190" activeCellId="0" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2601,18 +2608,10 @@
       <c r="C70" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E70" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F70" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G70" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -3150,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>-1</v>
       </c>
@@ -5142,20 +5141,13 @@
       <c r="C185" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D185" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="E185" s="24" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F185" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="G185" s="26" t="n">
-        <v>10</v>
-      </c>
+      <c r="D185" s="23"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G185"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5163,5 +5155,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/academycity/data/training/datasets/excel/tests/112_1_Fin_yankee_20230608.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_1_Fin_yankee_20230608.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$G$185</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$G$184</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">userid</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">KANDAYI TSHINYAMA JUSTIN</t>
   </si>
   <si>
-    <t xml:space="preserve">KANDUMBU-KIKENGA-JEAN</t>
+    <t xml:space="preserve">KANDUMBU KIKENGA JEAN</t>
   </si>
   <si>
     <t xml:space="preserve">KAYOMBO KABUAYA PASCAL</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">MAKEMA KASONGA BENOIT</t>
   </si>
   <si>
-    <t xml:space="preserve">MALEMBE-MAKUNZI-BLANCHARD</t>
+    <t xml:space="preserve">MALEMBE MAKUNZI BLANCHARD</t>
   </si>
   <si>
     <t xml:space="preserve">MATADI KANKONDE</t>
@@ -121,16 +121,16 @@
     <t xml:space="preserve">MBUYAMBA BANGA TRESOR</t>
   </si>
   <si>
-    <t xml:space="preserve">MBUYI-NSAMBA-PAULIN</t>
+    <t xml:space="preserve">MBUYI NSAMBA PAULIN</t>
   </si>
   <si>
     <t xml:space="preserve">MINGA MINGA PAPY</t>
   </si>
   <si>
-    <t xml:space="preserve">MOTOSILA-ETAMA-DAVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPOYI-LUMUMBA-FRANCOIS</t>
+    <t xml:space="preserve">MOTOSILA ETAMA DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPOYI LUMUMBA FRANCOIS</t>
   </si>
   <si>
     <t xml:space="preserve">MUAKUILAYI MOISE</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">MUKENDI KABONGO ERICK</t>
   </si>
   <si>
-    <t xml:space="preserve">MUKENDI-LUMBALA-ALFRED</t>
+    <t xml:space="preserve">MUKENDI LUMBALA ALFRED</t>
   </si>
   <si>
     <t xml:space="preserve">MULOWAYI MUSAMBA JOSE</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">MWAMBA MUFUTA DIEUDONNE</t>
   </si>
   <si>
-    <t xml:space="preserve">MWAMBA-MULAMBA-VICKY</t>
+    <t xml:space="preserve">MWAMBA MULAMBA VICKY</t>
   </si>
   <si>
     <t xml:space="preserve">NJIBU NGOYI JEAMPY</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">NYAMABU KALONJI MANASSE</t>
   </si>
   <si>
-    <t xml:space="preserve">NYENGELE-MUTEBA-ANDRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABALAYI-NTUMBA-RICHARD</t>
+    <t xml:space="preserve">NYENGELE MUTEBA ANDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABALAYI NTUMBA RICHARD</t>
   </si>
   <si>
     <t xml:space="preserve">TSHIBOLA MUTOMBO</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHILOMBO-BUKASA-ARNOLD</t>
+    <t xml:space="preserve">TSHILOMBO BUKASA ARNOLD</t>
   </si>
   <si>
     <t xml:space="preserve">TSHILUMBAYI TSHIMBA PAULIN</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">TSHISUPA MUKENDI CEDRICK</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAHIGA MOSENGO JEAN-PAUL</t>
+    <t xml:space="preserve">ZAHIGA MOSENGO JEAN PAUL</t>
   </si>
   <si>
     <t xml:space="preserve">Okondo kabuye</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">BADIBANGA KALEMBA ETIENNE</t>
   </si>
   <si>
-    <t xml:space="preserve">BIKUBA-FWAMBA-EMMANUEL</t>
+    <t xml:space="preserve">BIKUBA FWAMBA EMMANUEL</t>
   </si>
   <si>
     <t xml:space="preserve">BOKOMBI NGALA SAMUEL</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">KAZADI MARCEL JOHN</t>
   </si>
   <si>
-    <t xml:space="preserve">LIAHU-ELAko Fiston</t>
+    <t xml:space="preserve">LIAHU ELAko Fiston</t>
   </si>
   <si>
     <t xml:space="preserve">MAKWELA MONDO</t>
@@ -275,16 +275,16 @@
     <t xml:space="preserve">MBULU BAMWANGALA</t>
   </si>
   <si>
-    <t xml:space="preserve">MFUMUETO-GAEL-AGOGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOMBANGU-MATA-JOHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPENZE-TANDALA-DOUGLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUELA-MBALA-POMPIDOU</t>
+    <t xml:space="preserve">MFUMUETO GAEL AGOGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOMBANGU MATA JOHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPENZE TANDALA DOUGLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUELA MBALA POMPIDOU</t>
   </si>
   <si>
     <t xml:space="preserve">MUKENDI KABEYA PATRICK</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">NDIBU MBUYI Potient</t>
   </si>
   <si>
-    <t xml:space="preserve">NGALAMULUME-NTUMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIMBUE-YUAKALI-TRESOR</t>
+    <t xml:space="preserve">NGALAMULUME NTUMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIMBUE YUAKALI TRESOR</t>
   </si>
   <si>
     <t xml:space="preserve">NYEMBUE KABEYA JUNIOR</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">TSHIAKA KABEMBA PAPY</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHIBASU-TSHITENGE-NOE</t>
+    <t xml:space="preserve">TSHIBASU TSHITENGE NOE</t>
   </si>
   <si>
     <t xml:space="preserve">TSHIKADI KAMBALA</t>
@@ -374,25 +374,25 @@
     <t xml:space="preserve">KIAKU AKALIMESU Patient</t>
   </si>
   <si>
-    <t xml:space="preserve">KOLEKA-MAUDA PRINCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KONGA-LIWANGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUTA-NDEDETEMO GODEFROID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINGOLO-ILANGA APO</t>
+    <t xml:space="preserve">KOLEKA MAUDA PRINCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KONGA LIWANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUTA NDEDETEMO GODEFROID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINGOLO ILANGA APO</t>
   </si>
   <si>
     <t xml:space="preserve">LISETSHIA LIKUNDE LA VIE</t>
   </si>
   <si>
-    <t xml:space="preserve">LISUNGI-NGANDI-JOLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITA-BAKAMBA</t>
+    <t xml:space="preserve">LISUNGI NGANDI JOLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITA BAKAMBA</t>
   </si>
   <si>
     <t xml:space="preserve">LONGOMA OTSHIUDI ALPHONSE</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">LUMBU NTAMBUE GLOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">MAKOY-YENGA-JOEL</t>
+    <t xml:space="preserve">MAKOY YENGA JOEL</t>
   </si>
   <si>
     <t xml:space="preserve">MAKUATA DINZAMBI RABBI</t>
   </si>
   <si>
-    <t xml:space="preserve">MANDE-KABUNDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGANGA-MAYOMBE</t>
+    <t xml:space="preserve">MANDE KABUNDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGANGA MAYOMBE</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUINDI BEKUDU BERNARD</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">MANZINZI KABUKU Roben</t>
   </si>
   <si>
-    <t xml:space="preserve">MATONSI-BAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYALA-TSHOMBO</t>
+    <t xml:space="preserve">MATONSI BAMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYALA TSHOMBO</t>
   </si>
   <si>
     <t xml:space="preserve">MBATU LIPASA MICKAEL</t>
   </si>
   <si>
-    <t xml:space="preserve">MBOKA-WIZAMO-ALAIN</t>
+    <t xml:space="preserve">MBOKA WIZAMO ALAIN</t>
   </si>
   <si>
     <t xml:space="preserve">MBOMA LEDI JACQUES</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">MBUKWA SAMUEL JOSE</t>
   </si>
   <si>
-    <t xml:space="preserve">MBUYI-BENDA-JEAMPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTOKA-MOKASA-JOSEPH</t>
+    <t xml:space="preserve">MBUYI BENDA JEAMPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTOKA MOKASA JOSEPH</t>
   </si>
   <si>
     <t xml:space="preserve">MPANGWE MWASSA GEORGES</t>
@@ -470,19 +470,16 @@
     <t xml:space="preserve">MWANDA KABANGU EVARISTE</t>
   </si>
   <si>
-    <t xml:space="preserve">NDAYA-NSUMPE-JEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDJOKU-ALUAWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKEZENGA-SUBAYI GABRIEL</t>
+    <t xml:space="preserve">NDAYA NSUMPE JEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDJOKU ALUAWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKEZENGA SUBAYI GABRIEL</t>
   </si>
   <si>
     <t xml:space="preserve">NKULU WA NKUNKU DOMIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OKONDO KABUYA</t>
   </si>
   <si>
     <r>
@@ -493,7 +490,7 @@
         <family val="2"/>
         <charset val="177"/>
       </rPr>
-      <t xml:space="preserve">TSHITENGE-BETU</t>
+      <t xml:space="preserve">TSHITENGE BETU</t>
     </r>
     <r>
       <rPr>
@@ -537,7 +534,7 @@
     <t xml:space="preserve">ELISHA MUZABURI</t>
   </si>
   <si>
-    <t xml:space="preserve">FINDULA-BWANZA-OSCAR</t>
+    <t xml:space="preserve">FINDULA BWANZA OSCAR</t>
   </si>
   <si>
     <t xml:space="preserve">HASSANI MALIKI NORBERT</t>
@@ -561,10 +558,10 @@
     <t xml:space="preserve">KATSHINGA MANDANGI</t>
   </si>
   <si>
-    <t xml:space="preserve">KENDA-NKULU-JONAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOMANDA-TONGOLO-ELIE</t>
+    <t xml:space="preserve">KENDA NKULU JONAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMANDA TONGOLO ELIE</t>
   </si>
   <si>
     <t xml:space="preserve">LOFUNDU OKITAWANGO</t>
@@ -576,22 +573,22 @@
     <t xml:space="preserve">MAKENGA KANKU</t>
   </si>
   <si>
-    <t xml:space="preserve">MBOLI-KANDULA-GUELORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBUMBA-KABONGO-JEAN</t>
+    <t xml:space="preserve">MBOLI KANDULA GUELORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBUMBA KABONGO JEAN</t>
   </si>
   <si>
     <t xml:space="preserve">MPANYA TSHIMBALANGA</t>
   </si>
   <si>
-    <t xml:space="preserve">MPUMBU-NTUMBA-JUSTIN</t>
+    <t xml:space="preserve">MPUMBU NTUMBA JUSTIN</t>
   </si>
   <si>
     <t xml:space="preserve">MUBENGA ILUNGA JONATHAN</t>
   </si>
   <si>
-    <t xml:space="preserve">MUENU-MUTSHIBI</t>
+    <t xml:space="preserve">MUENU MUTSHIBI</t>
   </si>
   <si>
     <t xml:space="preserve">MUKNAYI BENDE</t>
@@ -600,7 +597,7 @@
     <t xml:space="preserve">MUKOSA MIHIGO LEVIS</t>
   </si>
   <si>
-    <t xml:space="preserve">MUMBELE-LINGBANDU-JEAN</t>
+    <t xml:space="preserve">MUMBELE LINGBANDU JEAN</t>
   </si>
   <si>
     <t xml:space="preserve">MUSOLO NAKUMANDA</t>
@@ -621,7 +618,7 @@
     <t xml:space="preserve">NTUMBA BAKAJIKA DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">PAYE-NABALEAZO</t>
+    <t xml:space="preserve">PAYE NABALEAZO</t>
   </si>
   <si>
     <t xml:space="preserve">RUSU MASOMBI</t>
@@ -630,7 +627,7 @@
     <t xml:space="preserve">SHINDAMA FILS</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHILONDA-NSANA-RAPHAEL</t>
+    <t xml:space="preserve">TSHILONDA NSANA RAPHAEL</t>
   </si>
   <si>
     <t xml:space="preserve">ngoy lumweto alexander</t>
@@ -1022,10 +1019,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G190" activeCellId="0" sqref="G190"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4186,16 +4183,16 @@
         <v>146</v>
       </c>
       <c r="D141" s="7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E141" s="8" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G141" s="10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,22 +4200,22 @@
         <v>-1</v>
       </c>
       <c r="B142" s="20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142" s="18" t="s">
         <v>147</v>
       </c>
       <c r="D142" s="7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E142" s="8" t="n">
-        <v>15</v>
+        <v>13.13</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G142" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,45 +4223,45 @@
         <v>-1</v>
       </c>
       <c r="B143" s="20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D143" s="7" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E143" s="8" t="n">
-        <v>13.13</v>
+        <v>13.14</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G143" s="10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B144" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C144" s="18" t="s">
+      <c r="B144" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C144" s="22" t="s">
         <v>149</v>
       </c>
       <c r="D144" s="7" t="n">
         <v>50</v>
       </c>
       <c r="E144" s="8" t="n">
-        <v>13.14</v>
+        <v>11.38</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G144" s="10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,16 +4275,16 @@
         <v>150</v>
       </c>
       <c r="D145" s="7" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E145" s="8" t="n">
-        <v>11.38</v>
+        <v>12.28</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G145" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,16 +4298,16 @@
         <v>151</v>
       </c>
       <c r="D146" s="7" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E146" s="8" t="n">
-        <v>12.28</v>
+        <v>11.15</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G146" s="10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,21 +4317,13 @@
       <c r="B147" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D147" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="E147" s="8" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F147" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="G147" s="10" t="n">
-        <v>11</v>
-      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -4358,13 +4347,21 @@
       <c r="B149" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="10"/>
+      <c r="D149" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="E149" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G149" s="10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -4377,16 +4374,16 @@
         <v>155</v>
       </c>
       <c r="D150" s="7" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E150" s="8" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G150" s="10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,16 +4397,16 @@
         <v>156</v>
       </c>
       <c r="D151" s="7" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E151" s="8" t="n">
-        <v>15</v>
+        <v>12.29</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G151" s="10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,16 +4420,16 @@
         <v>157</v>
       </c>
       <c r="D152" s="7" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E152" s="8" t="n">
-        <v>12.29</v>
+        <v>13.09</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G152" s="10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,16 +4443,16 @@
         <v>158</v>
       </c>
       <c r="D153" s="7" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E153" s="8" t="n">
-        <v>13.09</v>
+        <v>12.33</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G153" s="10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,16 +4466,16 @@
         <v>159</v>
       </c>
       <c r="D154" s="7" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E154" s="8" t="n">
-        <v>12.33</v>
+        <v>13.13</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G154" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,16 +4489,16 @@
         <v>160</v>
       </c>
       <c r="D155" s="7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E155" s="8" t="n">
-        <v>13.13</v>
+        <v>11.57</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G155" s="10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,16 +4512,16 @@
         <v>161</v>
       </c>
       <c r="D156" s="7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E156" s="8" t="n">
-        <v>11.57</v>
+        <v>13.31</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G156" s="10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,21 +4531,13 @@
       <c r="B157" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C157" s="22" t="s">
+      <c r="C157" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D157" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="E157" s="8" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F157" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="G157" s="10" t="n">
-        <v>8</v>
-      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -4557,13 +4546,21 @@
       <c r="B158" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="10"/>
+      <c r="D158" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E158" s="8" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F158" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" s="10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -4576,16 +4573,16 @@
         <v>164</v>
       </c>
       <c r="D159" s="7" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E159" s="8" t="n">
-        <v>13.45</v>
+        <v>13.06</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G159" s="10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,16 +4596,16 @@
         <v>165</v>
       </c>
       <c r="D160" s="7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E160" s="8" t="n">
-        <v>13.06</v>
+        <v>11.53</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G160" s="10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,16 +4619,16 @@
         <v>166</v>
       </c>
       <c r="D161" s="7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E161" s="8" t="n">
-        <v>11.53</v>
+        <v>13.13</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G161" s="10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,21 +4638,13 @@
       <c r="B162" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D162" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="E162" s="8" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F162" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="G162" s="10" t="n">
-        <v>7</v>
-      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -4664,13 +4653,21 @@
       <c r="B163" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="10"/>
+      <c r="D163" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="E163" s="8" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="G163" s="10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -4683,16 +4680,16 @@
         <v>169</v>
       </c>
       <c r="D164" s="7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E164" s="8" t="n">
-        <v>11.31</v>
+        <v>11.13</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G164" s="10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,16 +4703,16 @@
         <v>170</v>
       </c>
       <c r="D165" s="7" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E165" s="8" t="n">
-        <v>11.13</v>
+        <v>15</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" s="10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,16 +4726,16 @@
         <v>171</v>
       </c>
       <c r="D166" s="7" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E166" s="8" t="n">
-        <v>15</v>
+        <v>12.24</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G166" s="10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,13 +4749,13 @@
         <v>172</v>
       </c>
       <c r="D167" s="7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E167" s="8" t="n">
-        <v>12.24</v>
+        <v>11</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G167" s="10" t="n">
         <v>6</v>
@@ -4775,16 +4772,16 @@
         <v>173</v>
       </c>
       <c r="D168" s="7" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E168" s="8" t="n">
-        <v>11</v>
+        <v>12.13</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G168" s="10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,16 +4795,16 @@
         <v>174</v>
       </c>
       <c r="D169" s="7" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E169" s="8" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G169" s="10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,16 +4818,16 @@
         <v>175</v>
       </c>
       <c r="D170" s="7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E170" s="8" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G170" s="10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,21 +4837,13 @@
       <c r="B171" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D171" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="E171" s="8" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F171" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="G171" s="10" t="n">
-        <v>7</v>
-      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -4878,13 +4867,21 @@
       <c r="B173" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="10"/>
+      <c r="D173" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="E173" s="8" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F173" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="G173" s="10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -4897,16 +4894,16 @@
         <v>179</v>
       </c>
       <c r="D174" s="7" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E174" s="8" t="n">
-        <v>12.17</v>
+        <v>13.14</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G174" s="10" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,16 +4917,16 @@
         <v>180</v>
       </c>
       <c r="D175" s="7" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E175" s="8" t="n">
-        <v>13.14</v>
+        <v>14.4</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G175" s="10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,16 +4940,16 @@
         <v>181</v>
       </c>
       <c r="D176" s="7" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E176" s="8" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G176" s="10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,21 +4959,13 @@
       <c r="B177" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="E177" s="8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F177" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="G177" s="10" t="n">
-        <v>5</v>
-      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -4985,13 +4974,21 @@
       <c r="B178" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="10"/>
+      <c r="D178" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E178" s="8" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F178" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="G178" s="10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -5004,16 +5001,16 @@
         <v>184</v>
       </c>
       <c r="D179" s="7" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E179" s="8" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G179" s="10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,16 +5024,16 @@
         <v>185</v>
       </c>
       <c r="D180" s="7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E180" s="8" t="n">
-        <v>12.25</v>
+        <v>14.09</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G180" s="10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,16 +5047,16 @@
         <v>186</v>
       </c>
       <c r="D181" s="7" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E181" s="8" t="n">
-        <v>14.09</v>
+        <v>13.44</v>
       </c>
       <c r="F181" s="9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G181" s="10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,16 +5070,16 @@
         <v>187</v>
       </c>
       <c r="D182" s="7" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E182" s="8" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G182" s="10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,16 +5093,16 @@
         <v>188</v>
       </c>
       <c r="D183" s="7" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E183" s="8" t="n">
-        <v>12.24</v>
+        <v>13.37</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G183" s="10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,36 +5115,13 @@
       <c r="C184" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D184" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="E184" s="8" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="F184" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="G184" s="10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B185" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="26"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G185"/>
+  <autoFilter ref="A1:G184"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
